--- a/biology/Histoire de la zoologie et de la botanique/Auguste_Charles_César_de_Flahaut_de_La_Billarderie/Auguste_Charles_César_de_Flahaut_de_La_Billarderie.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste_Charles_César_de_Flahaut_de_La_Billarderie/Auguste_Charles_César_de_Flahaut_de_La_Billarderie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auguste_Charles_C%C3%A9sar_de_Flahaut_de_La_Billarderie</t>
+          <t>Auguste_Charles_César_de_Flahaut_de_La_Billarderie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Charles Cesar du Flahault ou Charles Auguste César Flahaut de La Billarderie (né le 10 avril 1724 à Nesles-la-Vallée en Seine-et-Oise, mort le 29 mai 1811 à Saint-Remy-en-l'Eau dans l'Oise) fut un maréchal de camp français.  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auguste_Charles_C%C3%A9sar_de_Flahaut_de_La_Billarderie</t>
+          <t>Auguste_Charles_César_de_Flahaut_de_La_Billarderie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Charles César Flahaut de La Billarderie (1669-1743) et d'Odile Cœuret de Nesle. Ses frères Charles-François de Flahaut de La Billarderie (1726-1793) et Charles Claude Flahaut de La Billarderie (1730-1810), plus connu sous le titre de comte d'Angiviller, furent également maréchaux de camp comme lui.
 Il s'est marié le 16 novembre 1760 à Marie-Jeanne Françoise Richard de Pichon (4 mai 1739 ; † 24 septembre 1816, Saint-Remy-en-l’Eau), fille de Brice Richard de Pichon (21 octobre 1698, Toul ; † 23 octobre 1769, Paris), seigneur de Livry, avocat au Parlement, puis fermier général.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auguste_Charles_C%C3%A9sar_de_Flahaut_de_La_Billarderie</t>
+          <t>Auguste_Charles_César_de_Flahaut_de_La_Billarderie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fut deuxième marquis de la Billarderie, seigneur de Saint-Remy-en-l’Eau en Beauvaisis (Oise), maréchal de camp (1767), chevalier de Saint-Louis (1748), gouverneur de Saint-Quentin.
-Auguste Charles César de Flahaut de La Billarderie, marquis d'Angiviller est nommé intendant du Jardin du Roi le 18 avril 1788, succédant ainsi à Buffon. Mais il n’entend pas grand-chose aux sciences, ni même à l’horticulture, aussi le naturaliste Louis Jean-Marie Daubenton et les personnels du Jardin du Roi, notamment les démonstrateurs, se plaignent-ils (vainement) au roi[1].
+Auguste Charles César de Flahaut de La Billarderie, marquis d'Angiviller est nommé intendant du Jardin du Roi le 18 avril 1788, succédant ainsi à Buffon. Mais il n’entend pas grand-chose aux sciences, ni même à l’horticulture, aussi le naturaliste Louis Jean-Marie Daubenton et les personnels du Jardin du Roi, notamment les démonstrateurs, se plaignent-ils (vainement) au roi.
 Ils le poussent cependant à démissionner le 25 novembre 1791, mais il continue d'exercer ses fonctions jusqu'au 1er janvier 1792.
 </t>
         </is>
